--- a/analyses/BCA_analysis/2017-5-31_Plate_3_BCA_analyses.xlsx
+++ b/analyses/BCA_analysis/2017-5-31_Plate_3_BCA_analyses.xlsx
@@ -1060,7 +1060,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1109,7 +1108,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1204,11 +1202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1504420640"/>
-        <c:axId val="1507502896"/>
+        <c:axId val="1803298160"/>
+        <c:axId val="1803305392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1504420640"/>
+        <c:axId val="1803298160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,13 +1247,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1507502896"/>
+        <c:crossAx val="1803305392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1507502896"/>
+        <c:axId val="1803305392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1294,14 +1292,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1504420640"/>
+        <c:crossAx val="1803298160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1699,8 +1696,8 @@
   </sheetPr>
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2777,7 +2774,7 @@
         <v>0.84833333333333327</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" ref="G37:G83" si="0">1.4233*(F39)+0.0111</f>
+        <f t="shared" ref="G39:G81" si="0">1.4233*(F39)+0.0111</f>
         <v>1.2185328333333334</v>
       </c>
       <c r="H39" s="3">
@@ -2856,19 +2853,19 @@
         <v>0.12233333333333334</v>
       </c>
       <c r="F42" s="11">
-        <f>E42-E39</f>
-        <v>-0.85899999999999999</v>
+        <f>Table1[[#This Row],[Average absorbance at 562 nm]]-E33</f>
+        <v>-1.0666666666666672E-2</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>-1.2115146999999999</v>
+        <v>-4.0818666666666732E-3</v>
       </c>
       <c r="H42" s="11">
         <v>3</v>
       </c>
       <c r="I42" s="11">
         <f>G42*3</f>
-        <v>-3.6345440999999998</v>
+        <v>-1.224560000000002E-2</v>
       </c>
       <c r="J42" s="11">
         <v>100</v>
@@ -2949,15 +2946,15 @@
         <v>3</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" ref="I43:I83" si="2">G45*3</f>
+        <f t="shared" ref="I45:I81" si="2">G45*3</f>
         <v>3.9103692000000012</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" ref="J42:J83" si="3">100/I45</f>
+        <f t="shared" ref="J45:J81" si="3">100/I45</f>
         <v>25.573032848151517</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" ref="K43:K83" si="4">100-J45</f>
+        <f t="shared" ref="K45:K81" si="4">100-J45</f>
         <v>74.426967151848487</v>
       </c>
     </row>
@@ -3883,30 +3880,31 @@
         <v>1.6379999999999999</v>
       </c>
       <c r="E78" s="13">
-        <v>1.0409999999999999</v>
+        <f>AVERAGE(D78:D80)</f>
+        <v>1.5926666666666665</v>
       </c>
       <c r="F78" s="13">
         <f>E78-E33</f>
-        <v>0.90799999999999992</v>
+        <v>1.4596666666666664</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="0"/>
-        <v>1.3034564</v>
+        <v>2.0886435666666663</v>
       </c>
       <c r="H78" s="11">
         <v>3</v>
       </c>
       <c r="I78" s="11">
         <f t="shared" si="2"/>
-        <v>3.9103691999999999</v>
+        <v>6.2659306999999984</v>
       </c>
       <c r="J78" s="11">
         <f t="shared" si="3"/>
-        <v>25.573032848151527</v>
+        <v>15.959321094949235</v>
       </c>
       <c r="K78" s="11">
         <f t="shared" si="4"/>
-        <v>74.426967151848473</v>
+        <v>84.040678905050768</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -3971,30 +3969,31 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="E81" s="13">
-        <v>1.0409999999999999</v>
+        <f>AVERAGE(D81:D83)</f>
+        <v>0.84033333333333327</v>
       </c>
       <c r="F81" s="14">
         <f>E81-E33</f>
-        <v>0.90799999999999992</v>
+        <v>0.70733333333333326</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" si="0"/>
-        <v>1.3034564</v>
+        <v>1.0178475333333334</v>
       </c>
       <c r="H81" s="11">
         <v>3</v>
       </c>
       <c r="I81" s="11">
         <f t="shared" si="2"/>
-        <v>3.9103691999999999</v>
+        <v>3.0535426000000001</v>
       </c>
       <c r="J81" s="11">
         <f t="shared" si="3"/>
-        <v>25.573032848151527</v>
+        <v>32.748847191455589</v>
       </c>
       <c r="K81" s="11">
         <f t="shared" si="4"/>
-        <v>74.426967151848473</v>
+        <v>67.251152808544418</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
